--- a/Pressemitteilung_bereinigt.xlsx
+++ b/Pressemitteilung_bereinigt.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3996f9647f4b6a68/Master/Studienarbeit/Daten/NLP-Analyst-Recommendation-Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="39" documentId="8_{DC43EE80-D35D-4F14-A80C-C721BCFB4B00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5600665D-DCAD-442C-9568-80022286F517}"/>
+  <xr:revisionPtr revIDLastSave="89" documentId="8_{DC43EE80-D35D-4F14-A80C-C721BCFB4B00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E447D250-CC1A-485D-8E89-D9D8C9DFD3EF}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t>Pressemitteilung</t>
   </si>
@@ -46,9 +46,6 @@
     <t>Aufsichtsrat und Vorstand schlagen vor, die Dividende von 4,25 Euro im Vorjahr auf 4,70 Euro je Aktie zu erhöhen</t>
   </si>
   <si>
-    <t xml:space="preserve"> „Das Geschäftsjahr 2023 war ein Jahr mit zahlreichen Rekorden: In unserem Industriellen Geschäft erreichten wir bei Ergebnis und Profitabilität die höchsten Werte aller Zeiten</t>
-  </si>
-  <si>
     <t>Unseren Gewinn nach Steuern haben wir fast verdoppelt und so einen historischen Höchststand erreicht</t>
   </si>
   <si>
@@ -61,15 +58,6 @@
     <t>Das Verhältnis von Auftragseingang zu Umsatzerlösen („Book -to-Bill-Ratio“) liegt mit 1, 19 auf einem ausgezeichneten Niveau (GJ 2022: 1,24)</t>
   </si>
   <si>
-    <t xml:space="preserve"> Das digitale Geschäft wächst weiterhin schnell  und verzeichnete einen Anstieg um rund 12 Prozent auf 7,3 Milliarden Euro (GJ 2022: 6,5 Milliarden Euro)</t>
-  </si>
-  <si>
-    <t>Der Gewinn  nach Steuern erreichte 8,5 Milliarden Euro nach einem Gewinn nach Steuern von 4,4 Milliarden Euro im Geschäftsjahr 2022</t>
-  </si>
-  <si>
-    <t>Alle drei Werte  sind Bestmarken in der Unternehmensgeschichte</t>
-  </si>
-  <si>
     <t xml:space="preserve">Der sogenannte Free Cash Flow „all -in“ aus fortgeführten und nicht fortgeführten Aktivitäten erreichte auf Konzernebene  einen Rekordwert und lag erstmals bei 10,0 Milliarden Euro  (GJ 2022: 8,2 Milliarden Euro) </t>
   </si>
   <si>
@@ -85,51 +73,12 @@
     <t xml:space="preserve">Die Ergebnismarge erreichte 16,5 Prozent </t>
   </si>
   <si>
-    <t>Der Gewinn nach Steuern betrug 1,9  Milliarden Euro nach 2,9  Milliarden Euro im Vorjahresquartal , das durch einen Gewinn von 1,1  Milliarden Euro (vor Steuern) aus dem Verkauf des Brief- und Paketabwicklungsgeschäfts  begünstigt war</t>
-  </si>
-  <si>
-    <t>Das neue Unternehmen steht bei Kunden, Lieferanten und den über 15.000 Beschäftigten  für Leistungsfähigkeit und Innovationsstärke</t>
-  </si>
-  <si>
-    <t>Die gute Geschäftsentwicklung und ein gesunder Auftragsbestand unterstreichen die starke Positionierung von Innomotics als führender Anbieter für Großantriebe und Motoren</t>
-  </si>
-  <si>
-    <t>Damit sind alle Voraussetzungen gescha ffen, die weiteren Schritte zur Eigenständigkeit von In nomotics aus einer Position der Stärke heraus einzuleiten</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gleichzeitig werden auch Angebote von Dritten sorgfältig geprüft und gegebenenfalls als Alternative zu einer Börsennotierung in Betracht gezogen </t>
-  </si>
-  <si>
-    <t>Es wird sichergestellt, dass die künftige Eigentümerstruktur beste Rahmenbedingungen für eine nachhaltige , wachstumsorientierte  und wertsteigernde  Entwicklung bietet</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Ausblick für das Geschäftsjahr 2024  Die Prognose für den Siemens -Konzern im Geschäftsjahr 2024 beruht auf der Annahme, dass die geopolitischen Spannungen nicht weiter zunehmen </t>
-  </si>
-  <si>
     <t>Unter dieser Bedingung wird erwartet, dass das Industrielle Geschäft weiter profitabel wachsen wird</t>
   </si>
   <si>
     <t xml:space="preserve"> Für den Siemens -Konzern wird ein Umsatzerlöswachstum auf vergleichbarer Basis (bereinigt um Währungsumrechnungs - und Portfolioeffekte) in einer Bandbreite von 4 Prozent bis 8 Prozent und ein Verhältnis von Auftragseingang zu Umsatzerlösen (Book -to-Bill-Verhältnis) von über 1 erwartet</t>
   </si>
   <si>
-    <t xml:space="preserve"> Digital Industries  prognostiziert für das Geschäftsjahr 2024 eine Entwicklung der Umsatzerlöse auf vergleichbarer Basis in einer Bandbreite von 0  Prozent  bis 3 Prozent </t>
-  </si>
-  <si>
-    <t>Dies basiert auf der Annahme, dass nach Abbau der Vorräte bei Kunden die weltweite Nachfrage in den Automatisierungsgeschäften insbesondere in China in der zweiten Hälfte des Geschäftsjahres wieder anziehen wird</t>
-  </si>
-  <si>
-    <t>Die Ergebnismarge wird zwischen 20  Prozent  und 23  Prozent  erwartet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  Smart Infrastructure  erwartet im Geschäftsjahr 2024 ein Umsatzerlöswachstum auf vergleichbarer Basis zwischen 7 Prozent und 10 Prozent und eine Ergebnismarge in einer Bandbreite von 15 Prozent bis 17 Prozent</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Mobility  beabsichtigt, im Geschäftsjahr 2024 ein Umsatzerlöswachstum auf vergleichbarer Basis zwischen 8 Prozent und 11 Prozent zu erzielen</t>
-  </si>
-  <si>
-    <t>Die Ergebnismarge wird zwischen 8 Prozent und 10 Prozent erwartet</t>
-  </si>
-  <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
@@ -142,58 +91,79 @@
     <t xml:space="preserve">Neue Rekordwerte : Ergebnis Industrielles Geschäft von 11,4 Milliarden Euro (GJ 2022: 10,3 Milliarden Euro) ; Ergebnismarge Industrielles Geschäft auf 15,4 Prozent gestiegen (GJ 2022: 15,1 Prozent)  </t>
   </si>
   <si>
-    <t xml:space="preserve">Ausblick Geschäftsjahr 2024: Siemens erwartet  ein Umsatzerlöswachstum auf vergleichbarer Basis von 4 bis 8 Prozent und ein unverwässertes Ergebnis je Aktie vor PPA -Effekten exklusive des Investments in Siemens Energy zwischen 10,40  Euro  und 11,00  Euro  </t>
-  </si>
-  <si>
     <t>Siemens  hat im abgelaufenen Geschäftsjahr 2023 (30. September 2023) seinen profitablen Wachstumskurs erfolgreich fortgesetzt und zahlreiche Rekorde erzielt</t>
   </si>
   <si>
-    <t>Sowohl das Ergebnis und die Profitabilität des Industriellen Geschäfts  als auch der Gewinn nach Steuern  erreichten neue Rekordwerte</t>
-  </si>
-  <si>
-    <t>Unsere Strategie zahlt sich aus und wir beschleunigen weiterhin die digitale und nachhaltige Transformation unserer Kunden”, sagte Roland Busch, Vorstandsvorsitzender der Siemens AG</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> „Siemens hat im Geschäftsjahr 2023 sein wertsteigerndes Wachstum fortgesetzt und erstmals einen Free Cash Flow von mehr als zehn Milliarden Euro erzielt”, sagte Ralf P. Thomas, Chief Financial Officer der Siemens AG</t>
-  </si>
-  <si>
     <t>Gewinn nach Steuern fast verdoppelt – Free Cash Flow mit Bestwert  Siemens steigerte im abgelaufenen Geschäftsjahr die Umsatzerlöse auf vergleichbarer Basis  um 11 Prozent auf 7 7,8 Milliarden  Euro (GJ 2022: 72,0 Milliarden Euro)</t>
   </si>
   <si>
-    <t xml:space="preserve">„Von diesem Erfolg profitieren auch unsere Aktionärinnen und Aktionäre mit einer vorgeschlagenen Erhöhung der Dividende auf 4,70 Euro, einer korrespondierenden Dividendenrendite von 3,5 Prozent und unserem ausge weiteten Aktienrückkauf.“ </t>
-  </si>
-  <si>
     <t>Der Auftragsbestand erreichte mit 111 Milliarden Euro erneut einen Rekordwert mit hoher Qualität</t>
   </si>
   <si>
-    <t>Damit hat Siemens seine avisierte Wachstumsrate von einem durchschnittlichen jährlichen Wachstum von 10 Prozent  in diesem Geschäftsjahr deutlich  übertroffen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Das Ergebnis  des Industriellen Geschäft s stieg um 11 Prozent  auf 11,4 Milliarden Euro  (GJ 2022: 10,3 Milliarden Euro) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Die Ergebnismarge  des Industriellen Geschäfts verbesserte sich auf  15,4 Prozent  (GJ 2022: 15,1 Prozent) </t>
-  </si>
-  <si>
     <t xml:space="preserve">Das unverwässerte Ergebnis je Aktie vor Effekten aus der Kaufpreisallokation (EPS pre PPA) belief sich  entsprechend auf 10,77 Euro (GJ  2022: 5,47 Euro); ohne Berücksichtigung der Siemens Energy Beteiligung, die 0,84  Euro  zum EPS pre PPA beitrug, lag das EPS pre PPA bei 9,93 Euro und übertraf  die Prognose  (9,60 Euro bis 9,90 Euro) </t>
   </si>
   <si>
     <t xml:space="preserve">Im vierten Quartal stieg der Auftragseingang auf vergleichbarer Basis um 6 Prozent auf 21,8 Milliarden Euro mit höherem Volumen aus Großaufträgen bei Mobility sowie  Wachstum bei Siemens Healthineers und Smart Infrastructure </t>
   </si>
   <si>
-    <t xml:space="preserve">Starker Abschluss im vierten Quartal  mit Rekorden in industriellen Geschäften </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Das Ergebnis des Industriellen Geschäfts nahm um 7 Prozent auf 3,4 Milliarden Euro zu und verzeichnete aufgrund beträchtlicher  Zuwächse bei Digital Industries  und Smart Infrastructure  den höchsten jemals erzielten Quartalswert</t>
-  </si>
-  <si>
-    <t>Daher wird Siemens mit der Vorbereitung für eine Börsennotierung von Innomotics beginnen</t>
-  </si>
-  <si>
-    <t>Innomotics: Vorbereitung weiterer Optionen zur Eigenständigkeit   Die Verselbständigung von Innomotics wurde, wie geplant, erfolgreich umgesetzt und ist weitestgehend abgeschlossen</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Es wird davon ausgegangen, dass im Geschäftsjahr 2024 durch das profitable Wachstum des Industriellen Geschäfts ein höheres unverwässertes Ergebnis je Aktie (für den Gewinn nach Steuern) vor Effekten aus der Kaufpreisallokation (EPS pre PPA), ohne Berücksichtigung von Siemens Energy Beteiligung, in einer Bandbreite von 10,40 Euro bis 11,00 Euro erreicht wird, gegenüber einem EPS pre PPA, ohne Berücksichtigung von Siemens Energy Beteiligung, von 9,93 Euro im Geschäftsjahr 2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ausblick Geschäftsjahr 2024: Siemens erwartet ein Umsatzerlöswachstum auf vergleichbarer Basis von 4 bis 8 Prozent und ein unverwässertes Ergebnis je Aktie vor PPA -Effekten exklusive des Investments in Siemens Energy zwischen 10,40  Euro  und 11,00  Euro  </t>
+  </si>
+  <si>
+    <t>Sowohl das Ergebnis und die Profitabilität des Industriellen Geschäfts  als auch der Gewinn nach Steuern erreichten neue Rekordwerte</t>
+  </si>
+  <si>
+    <t>Das Geschäftsjahr 2023 war ein Jahr mit zahlreichen Rekorden: In unserem Industriellen Geschäft erreichten wir bei Ergebnis und Profitabilität die höchsten Werte aller Zeiten</t>
+  </si>
+  <si>
+    <t>Unsere Strategie zahlt sich aus und wir beschleunigen weiterhin die digitale und nachhaltige Transformation unserer Kunden, sagte Roland Busch, Vorstandsvorsitzender der Siemens AG</t>
+  </si>
+  <si>
+    <t>Siemens hat im Geschäftsjahr 2023 sein wertsteigerndes Wachstum fortgesetzt und erstmals einen Free Cash Flow von mehr als zehn Milliarden Euro erzielt”, sagte Ralf P. Thomas, Chief Financial Officer der Siemens AG</t>
+  </si>
+  <si>
+    <t>Von diesem Erfolg profitieren auch unsere Aktionärinnen und Aktionäre mit einer vorgeschlagenen Erhöhung der Dividende auf 4,70 Euro, einer korrespondierenden Dividendenrendite von 3,5 Prozent und unserem ausge weiteten Aktienrückkauf</t>
+  </si>
+  <si>
+    <t>Das digitale Geschäft wächst weiterhin schnell  und verzeichnete einen Anstieg um rund 12 Prozent auf 7,3 Milliarden Euro (GJ 2022: 6,5 Milliarden Euro)</t>
+  </si>
+  <si>
+    <t>Starker Abschluss im vierten Quartal mit Rekorden im industriellen Geschäft</t>
+  </si>
+  <si>
+    <t>Das Ergebnis des Industriellen Geschäfts nahm um 7 Prozent auf 3,4 Milliarden Euro zu und verzeichnete aufgrund beträchtlicher Zuwächse bei Digital Industries  und Smart Infrastructure den höchsten jemals erzielten Quartalswert</t>
+  </si>
+  <si>
+    <t>Der Gewinn nach Steuern betrug 1,9  Milliarden Euro nach 2,9  Milliarden Euro im Vorjahresquartal , das durch einen Gewinn von 1,1  Milliarden Euro (vor Steuern) aus dem Verkauf des Brief- und Paketabwicklungsgeschäfts begünstigt war</t>
+  </si>
+  <si>
+    <t>Innomotics: Vorbereitung weiterer Optionen zur Eigenständigkeit   Die Verselbständigung von Innomotics wurde, wie geplant, erfolgreich umgesetzt und ist weitestgehend abgeschlossen. Das neue Unternehmen steht bei Kunden, Lieferanten und den über 15.000 Beschäftigten  für Leistungsfähigkeit und Innovationsstärke</t>
+  </si>
+  <si>
+    <t>Die gute Geschäftsentwicklung und ein gesunder Auftragsbestand unterstreichen die starke Positionierung von Innomotics als führender Anbieter für Großantriebe und Motoren. Damit sind alle Voraussetzungen geschaffen, die weiteren Schritte zur Eigenständigkeit von In nomotics aus einer Position der Stärke heraus einzuleiten</t>
+  </si>
+  <si>
+    <t>Daher wird Siemens mit der Vorbereitung für eine Börsennotierung von Innomotics beginnen. Gleichzeitig werden auch Angebote von Dritten sorgfältig geprüft und gegebenenfalls als Alternative zu einer Börsennotierung in Betracht gezogen. Es wird sichergestellt, dass die künftige Eigentümerstruktur beste Rahmenbedingungen für eine nachhaltige , wachstumsorientierte  und wertsteigernde  Entwicklung bietet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ausblick für das Geschäftsjahr 2024  Die Prognose für den Siemens -Konzern im Geschäftsjahr 2024 beruht auf der Annahme, dass die geopolitischen Spannungen nicht weiter zunehmen </t>
+  </si>
+  <si>
+    <t>Digital Industries  prognostiziert für das Geschäftsjahr 2024 eine Entwicklung der Umsatzerlöse auf vergleichbarer Basis in einer Bandbreite von 0  Prozent  bis 3 Prozent. Dies basiert auf der Annahme, dass nach Abbau der Vorräte bei Kunden die weltweite Nachfrage in den Automatisierungsgeschäften insbesondere in China in der zweiten Hälfte des Geschäftsjahres wieder anziehen wird. Die Ergebnismarge wird zwischen 20  Prozent  und 23  Prozent  erwartet</t>
+  </si>
+  <si>
+    <t>Smart Infrastructure  erwartet im Geschäftsjahr 2024 ein Umsatzerlöswachstum auf vergleichbarer Basis zwischen 7 Prozent und 10 Prozent und eine Ergebnismarge in einer Bandbreite von 15 Prozent bis 17 Prozent</t>
+  </si>
+  <si>
+    <t>Mobility  beabsichtigt, im Geschäftsjahr 2024 ein Umsatzerlöswachstum auf vergleichbarer Basis zwischen 8 Prozent und 11 Prozent zu erzielen. Die Ergebnismarge wird zwischen 8 Prozent und 10 Prozent erwartet</t>
+  </si>
+  <si>
+    <t>Das Ergebnis des Industriellen Geschäfts stieg um 11 Prozent  auf 11,4 Milliarden Euro  (GJ 2022: 10,3 Milliarden Euro). Die Ergebnismarge des Industriellen Geschäfts verbesserte sich auf  15,4 Prozent  (GJ 2022: 15,1 Prozent). Der Gewinn nach Steuern erreichte 8,5 Milliarden Euro nach einem Gewinn nach Steuern von 4,4 Milliarden Euro im Geschäftsjahr 2022. Alle drei Werte sind Bestmarken in der Unternehmensgeschichte</t>
+  </si>
+  <si>
+    <t>Damit hat Siemens seine avisierte Wachstumsrate von einem durchschnittlichen jährlichen Wachstum von 10 Prozent in diesem Geschäftsjahr deutlich übertroffen</t>
   </si>
 </sst>
 </file>
@@ -214,7 +184,7 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -224,6 +194,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -255,12 +231,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -276,6 +253,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -563,10 +544,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A58"/>
+  <dimension ref="A1:A48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="A57" sqref="A57"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -583,12 +564,12 @@
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
@@ -613,22 +594,22 @@
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
@@ -643,222 +624,172 @@
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
     </row>
     <row r="21" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>47</v>
+        <v>25</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>49</v>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>50</v>
+        <v>26</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="2" t="s">
-        <v>52</v>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>21</v>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="3" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>24</v>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="3" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
